--- a/pred_ohlcv/54_21/2020-01-16 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>52843.2841</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>53131.6729</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>52714.0517</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14018.0104</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16438.961</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10784.8248</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27419.4738</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29689.346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29287.9964</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>28682.75049999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>33439.86579999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>36375.86579999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-18226.1574</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-27190.87792818066</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-116164.2413281806</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-118231.5914281806</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-159855.9099281807</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-170254.4387281807</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-111795.4587281806</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-112117.6129281806</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-125683.7864281807</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-125036.1180281807</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-125255.4738281807</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-123600.4738281807</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-118785.3240281807</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-117089.9907281807</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-112889.9907281807</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-112362.0374281807</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-111546.0842281807</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-112832.9905281807</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-97619.22182818067</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-96916.29492818067</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-93308.12842818066</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-84129.67492818066</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>39667.13827181935</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>39529.73687181935</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>13152.70957181935</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>8080.944571819352</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>52843.2841</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>53131.6729</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>52714.0517</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>52365.0517</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14018.0104</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16438.961</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10784.8248</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27419.4738</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29689.346</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29287.9964</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>28682.75049999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>33439.86579999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>33939.86579999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>36375.86579999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-18226.1574</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-26940.87792818066</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-27190.87792818066</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-32015.94092818066</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-122041.8324281806</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-116164.2413281806</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-118231.5914281806</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-117816.9527281806</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-148928.5127281806</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-156863.4631281807</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-159030.3376281807</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-159656.9099281807</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-159855.9099281807</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-170886.9726281807</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-170254.4387281807</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-111795.4587281806</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-112117.6129281806</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-126487.1302281807</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-126487.1302281807</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-125683.7864281807</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-125036.1180281807</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-125255.4738281807</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-123600.4738281807</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-118429.8396281807</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-118785.3240281807</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-117502.2551281807</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-117372.2551281807</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-117089.9907281807</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-112889.9907281807</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-112362.0374281807</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-111546.0842281807</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-112832.9905281807</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-98615.34322818067</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-98139.66312818068</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-98182.09462818068</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-97619.22182818067</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-96916.29492818067</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-94129.67482818066</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-93308.12842818066</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-84129.67492818066</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>28647.78087181935</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>39667.13827181935</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>39297.53047181935</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>39529.73687181935</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>13152.70957181935</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>8080.944571819352</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16262.39617181935</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
